--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_4_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_4_square_10_.xlsx
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.300407642313507e-16</v>
+        <v>1.315819881037222e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>60.22113676760843</v>
+        <v>58.20563568893839</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[56.104656847488656, 64.3376166877282]</t>
+          <t>[53.87264349144694, 62.53862788642985]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.54092132158058</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.6163950189641199]</t>
+          <t>[1.4402897250691948, 1.5912371198362711]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.67152741157253</v>
+        <v>52.50961682556846</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.92247043145388, 57.42058439169117]</t>
+          <t>[49.63289466093811, 55.386338990198816]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.4876676676678</v>
+        <v>17.58044044044058</v>
       </c>
       <c r="X2" t="n">
-        <v>17.20934934934948</v>
+        <v>17.30212212212226</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.76598598598613</v>
+        <v>17.8587587587589</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.6100000000001</v>
+        <v>22.6300000000001</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.300407642313507e-16</v>
+        <v>1.315819881037222e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>58.13952547664736</v>
+        <v>57.00602027131258</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[51.628691761872986, 64.65035919142173]</t>
+          <t>[50.570708689039655, 63.4413318535855]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2578684660604242</v>
+        <v>0.3207632138800394</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.14465791998511612, 0.37107901213573236]</t>
+          <t>[0.19497371824080822, 0.4465527095192705]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.220530261947239e-05</v>
+        <v>1.135338931090857e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.220530261947239e-05</v>
+        <v>1.135338931090857e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>55.5410460275825</v>
+        <v>52.84706368075487</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.71085680622463, 59.37123524894037]</t>
+          <t>[49.19274803266827, 56.50137932884147]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.68206206206215</v>
+        <v>21.47471471471481</v>
       </c>
       <c r="X3" t="n">
-        <v>21.27467467467476</v>
+        <v>21.02166166166175</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.08944944944954</v>
+        <v>21.92776776776786</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_4_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_4_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.17000000000018</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.315819881037222e-16</v>
+        <v>1.308068364801363e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>58.20563568893839</v>
+        <v>58.2568226964993</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[53.87264349144694, 62.53862788642985]</t>
+          <t>[54.002613259948546, 62.51103213305005]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.603816069400196</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 1.5912371198362711]</t>
+          <t>[1.528342372016657, 1.679289766783735]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.50961682556846</v>
+        <v>54.25170232283964</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.63289466093811, 55.386338990198816]</t>
+          <t>[51.34962134905885, 57.15378329662043]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.58044044044058</v>
+        <v>17.30042042042056</v>
       </c>
       <c r="X2" t="n">
-        <v>17.30212212212226</v>
+        <v>17.02138138138152</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.8587587587589</v>
+        <v>17.5794594594596</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.6300000000001</v>
+        <v>22.6100000000001</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.315819881037222e-16</v>
+        <v>1.308068364801363e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>57.00602027131258</v>
+        <v>58.28152988088539</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[50.570708689039655, 63.4413318535855]</t>
+          <t>[51.778945472868514, 64.78411428890226]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3207632138800394</v>
+        <v>0.3081842643161163</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 0.4465527095192705]</t>
+          <t>[0.1949737182408091, 0.42139481039142357]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.135338931090857e-06</v>
+        <v>2.295958032583201e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>1.135338931090857e-06</v>
+        <v>2.295958032583201e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>52.84706368075487</v>
+        <v>53.44350567695886</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.19274803266827, 56.50137932884147]</t>
+          <t>[49.69083451462463, 57.196176839293095]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.47471471471481</v>
+        <v>21.50100100100109</v>
       </c>
       <c r="X3" t="n">
-        <v>21.02166166166175</v>
+        <v>21.0936136136137</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.92776776776786</v>
+        <v>21.90838838838848</v>
       </c>
     </row>
   </sheetData>
